--- a/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Assignment 2 Quadratic Equation Solver/aassignment2_grade_Purdue.xlsx
+++ b/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Assignment 2 Quadratic Equation Solver/aassignment2_grade_Purdue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-1\PROGRAMMING APPLICATIONS FOR ENGINEERS\Assignment 2 Quadratic Equation Solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C449E67F-F646-4B05-AF90-7E4A28E5349A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C21B375-EB2B-477C-B41F-848D354E876C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assgn2" sheetId="8" r:id="rId1"/>
@@ -534,6 +534,7 @@
     <font>
       <sz val="12"/>
       <name val="微軟正黑體"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
@@ -552,7 +553,8 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="新細明體"/>
-      <charset val="134"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,18 +573,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -626,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,18 +700,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -725,17 +709,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1086,26 +1076,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="55.77734375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.53125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.86328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.86328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="55.796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.19921875" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.6">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="109.2">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="107.65">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1159,7 +1149,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="62.4">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="61.5">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1187,7 +1177,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="62.4">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="61.5">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1215,7 +1205,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="46.8">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="46.15">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1242,7 +1232,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="124.8">
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="123">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1274,7 +1264,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="46.8">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="46.15">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1301,7 +1291,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="218.4">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="215.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1339,7 +1329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="62.4">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="61.5">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1367,7 +1357,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="46.8">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="46.15">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1394,7 +1384,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="78">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="76.900000000000006">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1423,7 +1413,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="62.4">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="61.5">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1451,7 +1441,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="156">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="153.75">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1485,7 +1475,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="62.4">
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="61.5">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1513,7 +1503,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="124.8">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="123">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1545,7 +1535,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="62.4">
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="61.5">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1573,7 +1563,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="78">
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="76.900000000000006">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1602,7 +1592,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="78">
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="76.900000000000006">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1631,7 +1621,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="78">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="76.900000000000006">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1660,7 +1650,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="62.4">
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="61.5">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1688,7 +1678,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="46.8">
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="46.15">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1713,7 +1703,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="62.4">
+    <row r="22" spans="1:7" ht="61.5">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1741,7 +1731,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="62.4">
+    <row r="23" spans="1:7" ht="61.5">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1769,7 +1759,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="109.2">
+    <row r="24" spans="1:7" ht="107.65">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1821,40 +1811,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22CBDA0-D65B-4671-869C-2D1BD935B201}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="23" customWidth="1"/>
-    <col min="6" max="17" width="11.77734375" style="23" customWidth="1"/>
-    <col min="18" max="18" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.46484375" style="23" customWidth="1"/>
+    <col min="6" max="17" width="11.796875" style="23" customWidth="1"/>
+    <col min="18" max="18" width="11.796875" customWidth="1"/>
     <col min="19" max="19" width="36.6640625" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="25" customWidth="1"/>
-    <col min="21" max="21" width="8.77734375" customWidth="1"/>
-    <col min="22" max="22" width="24.5546875" style="31" customWidth="1"/>
-    <col min="25" max="25" width="44.5546875" customWidth="1"/>
+    <col min="20" max="20" width="8.796875" style="25" customWidth="1"/>
+    <col min="21" max="21" width="8.796875" customWidth="1"/>
+    <col min="22" max="22" width="24.53125" style="27" customWidth="1"/>
+    <col min="25" max="25" width="44.53125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="33" t="s">
         <v>113</v>
       </c>
       <c r="F1" s="8">
@@ -1896,28 +1886,28 @@
       <c r="R1" s="8">
         <v>5</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27" t="s">
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27" t="s">
+      <c r="W1" s="33"/>
+      <c r="X1" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Y1" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="46.8">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="27"/>
+    <row r="2" spans="1:25" ht="30.75">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="8" t="s">
         <v>100</v>
       </c>
@@ -1957,15 +1947,15 @@
       <c r="R2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="28"/>
-    </row>
-    <row r="3" spans="1:25" ht="113.4">
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="32"/>
+    </row>
+    <row r="3" spans="1:25" ht="112.9">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2022,14 +2012,14 @@
       <c r="R3" s="8">
         <v>0</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="28" t="s">
         <v>110</v>
       </c>
       <c r="T3" s="7">
         <v>1</v>
       </c>
       <c r="U3" s="7">
-        <f>IF(4*T3&lt;=20, 4*T3, 20)</f>
+        <f t="shared" ref="U3:U25" si="0">IF(4*T3&lt;=20, 4*T3, 20)</f>
         <v>4</v>
       </c>
       <c r="V3" s="26" t="s">
@@ -2042,7 +2032,7 @@
         <f>20-W3</f>
         <v>12</v>
       </c>
-      <c r="Y3" s="37" t="str">
+      <c r="Y3" s="31" t="str">
         <f>Y$27&amp;IF(AND(D3=100, S3=""), "great","-"&amp;(80-E3))&amp;CHAR(10)&amp;
 IF(F3=0,"",Y$28&amp;F3&amp;")"&amp;CHAR(10))&amp;
 IF(G3=0,"",Y$29&amp;G3&amp;")"&amp;CHAR(10))&amp;
@@ -2068,7 +2058,7 @@
 Incorrect file format(-4)</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="64.8">
+    <row r="4" spans="1:25" ht="64.5">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -2079,11 +2069,11 @@
         <v>13</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" ref="D4:D25" si="0">E4+X4</f>
+        <f t="shared" ref="D4:D25" si="1">E4+X4</f>
         <v>93</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E25" si="1">80-SUM(F4:R4,U4)</f>
+        <f t="shared" ref="E4:E25" si="2">80-SUM(F4:R4,U4)</f>
         <v>73</v>
       </c>
       <c r="F4" s="8">
@@ -2125,12 +2115,12 @@
       <c r="R4" s="8">
         <v>0</v>
       </c>
-      <c r="S4" s="32"/>
+      <c r="S4" s="28"/>
       <c r="T4" s="7">
         <v>0</v>
       </c>
       <c r="U4" s="7">
-        <f>IF(4*T4&lt;=20, 4*T4, 20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V4" s="26" t="s">
@@ -2140,11 +2130,11 @@
         <v>0</v>
       </c>
       <c r="X4" s="7">
-        <f t="shared" ref="X4:X25" si="2">20-W4</f>
+        <f t="shared" ref="X4:X25" si="3">20-W4</f>
         <v>20</v>
       </c>
-      <c r="Y4" s="37" t="str">
-        <f t="shared" ref="Y4:Y25" si="3">Y$27&amp;IF(AND(D4=100, S4=""), "great","-"&amp;(80-E4))&amp;CHAR(10)&amp;
+      <c r="Y4" s="31" t="str">
+        <f t="shared" ref="Y4:Y25" si="4">Y$27&amp;IF(AND(D4=100, S4=""), "great","-"&amp;(80-E4))&amp;CHAR(10)&amp;
 IF(F4=0,"",Y$28&amp;F4&amp;")"&amp;CHAR(10))&amp;
 IF(G4=0,"",Y$29&amp;G4&amp;")"&amp;CHAR(10))&amp;
 IF(H4=0,"",Y$30&amp;H4&amp;")"&amp;CHAR(10))&amp;
@@ -2166,7 +2156,7 @@
 report: great</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="64.8">
+    <row r="5" spans="1:25" ht="64.5">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -2177,11 +2167,11 @@
         <v>17</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="F5" s="8">
@@ -2223,12 +2213,12 @@
       <c r="R5" s="8">
         <v>0</v>
       </c>
-      <c r="S5" s="32"/>
+      <c r="S5" s="28"/>
       <c r="T5" s="7">
         <v>0</v>
       </c>
       <c r="U5" s="7">
-        <f>IF(4*T5&lt;=20, 4*T5, 20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V5" s="26" t="s">
@@ -2238,18 +2228,18 @@
         <v>4</v>
       </c>
       <c r="X5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="Y5" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y5" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -2
 Wrong calculation in two complex roots(-0)
 report: -4
 Incorrect file format(-4)</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="48.6">
+    <row r="6" spans="1:25" ht="48.4">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -2260,11 +2250,11 @@
         <v>21</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="F6" s="8">
@@ -2306,14 +2296,14 @@
       <c r="R6" s="8">
         <v>0</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="S6" s="28" t="s">
         <v>109</v>
       </c>
       <c r="T6" s="7">
         <v>1</v>
       </c>
       <c r="U6" s="7">
-        <f>IF(4*T6&lt;=20, 4*T6, 20)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="V6" s="26" t="s">
@@ -2321,17 +2311,17 @@
       </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y6" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y6" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -4
 Incorrect type of a, b, and c(-4)
 report: great</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="129.6">
+    <row r="7" spans="1:25" ht="129">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -2342,11 +2332,11 @@
         <v>25</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="F7" s="8">
@@ -2388,14 +2378,14 @@
       <c r="R7" s="8">
         <v>0</v>
       </c>
-      <c r="S7" s="33" t="s">
+      <c r="S7" s="29" t="s">
         <v>111</v>
       </c>
       <c r="T7" s="7">
         <v>2</v>
       </c>
       <c r="U7" s="7">
-        <f>IF(4*T7&lt;=20, 4*T7, 20)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="V7" s="26" t="s">
@@ -2405,11 +2395,11 @@
         <v>0</v>
       </c>
       <c r="X7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y7" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y7" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -16
 Wrongly printing sentences(-1)
 Incorrect printing coefficients(-1)
@@ -2420,7 +2410,7 @@
 report: great</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="48.6">
+    <row r="8" spans="1:25" ht="48.4">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -2431,11 +2421,11 @@
         <v>29</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="F8" s="8">
@@ -2477,12 +2467,12 @@
       <c r="R8" s="8">
         <v>0</v>
       </c>
-      <c r="S8" s="34"/>
+      <c r="S8" s="28"/>
       <c r="T8" s="7">
         <v>0</v>
       </c>
       <c r="U8" s="7">
-        <f>IF(4*T8&lt;=20, 4*T8, 20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V8" s="26" t="s">
@@ -2492,17 +2482,17 @@
         <v>0</v>
       </c>
       <c r="X8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y8" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y8" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -2
 Wrong calculation in two complex roots(-0)
 report: great</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="226.8">
+    <row r="9" spans="1:25" ht="225.75">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -2513,11 +2503,11 @@
         <v>33</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="F9" s="8">
@@ -2559,14 +2549,14 @@
       <c r="R9" s="8">
         <v>0</v>
       </c>
-      <c r="S9" s="30" t="s">
+      <c r="S9" s="26" t="s">
         <v>112</v>
       </c>
       <c r="T9" s="7">
         <v>2</v>
       </c>
       <c r="U9" s="7">
-        <f>IF(4*T9&lt;=20, 4*T9, 20)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="V9" s="26" t="s">
@@ -2576,11 +2566,11 @@
         <v>8</v>
       </c>
       <c r="X9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="Y9" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y9" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -32
 Wrongly printing sentences(-1)
 Incorrect printing coefficients(-3)
@@ -2597,7 +2587,7 @@
 Incorrect file format(-4)</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="64.8">
+    <row r="10" spans="1:25" ht="64.5">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -2608,11 +2598,11 @@
         <v>37</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="E10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="F10" s="8">
@@ -2654,14 +2644,14 @@
       <c r="R10" s="8">
         <v>0</v>
       </c>
-      <c r="S10" s="32" t="s">
+      <c r="S10" s="28" t="s">
         <v>109</v>
       </c>
       <c r="T10" s="7">
         <v>1</v>
       </c>
       <c r="U10" s="7">
-        <f>IF(4*T10&lt;=20, 4*T10, 20)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="V10" s="26" t="s">
@@ -2671,18 +2661,18 @@
         <v>0</v>
       </c>
       <c r="X10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y10" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y10" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -9
 Wrong calculation in two complex roots(-0)
 Incorrect type of a, b, and c(-4)
 report: great</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="48.6">
+    <row r="11" spans="1:25" ht="48.4">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -2693,11 +2683,11 @@
         <v>41</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="E11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="F11" s="8">
@@ -2739,12 +2729,12 @@
       <c r="R11" s="8">
         <v>0</v>
       </c>
-      <c r="S11" s="32"/>
+      <c r="S11" s="28"/>
       <c r="T11" s="7">
         <v>0</v>
       </c>
       <c r="U11" s="7">
-        <f>IF(4*T11&lt;=20, 4*T11, 20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V11" s="26" t="s">
@@ -2754,17 +2744,17 @@
         <v>0</v>
       </c>
       <c r="X11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y11" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y11" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -2
 Wrong calculation in two complex roots(-0)
 report: great</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="81">
+    <row r="12" spans="1:25" ht="80.650000000000006">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -2775,11 +2765,11 @@
         <v>45</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="E12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="F12" s="8">
@@ -2821,14 +2811,14 @@
       <c r="R12" s="8">
         <v>0</v>
       </c>
-      <c r="S12" s="32" t="s">
+      <c r="S12" s="28" t="s">
         <v>115</v>
       </c>
       <c r="T12" s="7">
         <v>1</v>
       </c>
       <c r="U12" s="7">
-        <f>IF(4*T12&lt;=20, 4*T12, 20)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="V12" s="26" t="s">
@@ -2838,11 +2828,11 @@
         <v>4</v>
       </c>
       <c r="X12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="Y12" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y12" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -9
 Without handle a==0 condition(-0)
 Incorrect type of root1 and root2(-4)
@@ -2850,7 +2840,7 @@
 Incorrect file format(-4)</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="64.8">
+    <row r="13" spans="1:25" ht="64.5">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -2861,11 +2851,11 @@
         <v>49</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="F13" s="8">
@@ -2907,12 +2897,12 @@
       <c r="R13" s="8">
         <v>0</v>
       </c>
-      <c r="S13" s="32"/>
+      <c r="S13" s="28"/>
       <c r="T13" s="7">
         <v>0</v>
       </c>
       <c r="U13" s="7">
-        <f>IF(4*T13&lt;=20, 4*T13, 20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V13" s="26" t="s">
@@ -2922,18 +2912,18 @@
         <v>0</v>
       </c>
       <c r="X13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y13" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y13" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -4
 Incorrect printing coefficients(-2)
 Wrong calculation in two complex roots(-0)
 report: great</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="162">
+    <row r="14" spans="1:25" ht="161.25">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -2944,11 +2934,11 @@
         <v>53</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="E14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="F14" s="8">
@@ -2990,12 +2980,12 @@
       <c r="R14" s="8">
         <v>0</v>
       </c>
-      <c r="S14" s="32"/>
+      <c r="S14" s="28"/>
       <c r="T14" s="7">
         <v>0</v>
       </c>
       <c r="U14" s="7">
-        <f>IF(4*T14&lt;=20, 4*T14, 20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V14" s="26" t="s">
@@ -3005,11 +2995,11 @@
         <v>8</v>
       </c>
       <c r="X14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="Y14" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y14" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -15
 Wrongly printing sentences(-1)
 Incorrect printing coefficients(-3)
@@ -3022,7 +3012,7 @@
 Incorrect file format(-4)</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="64.8">
+    <row r="15" spans="1:25" ht="64.5">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -3033,11 +3023,11 @@
         <v>57</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="F15" s="8">
@@ -3079,14 +3069,14 @@
       <c r="R15" s="8">
         <v>0</v>
       </c>
-      <c r="S15" s="32" t="s">
+      <c r="S15" s="28" t="s">
         <v>119</v>
       </c>
       <c r="T15" s="7">
         <v>0</v>
       </c>
       <c r="U15" s="7">
-        <f>IF(4*T15&lt;=20, 4*T15, 20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V15" s="26" t="s">
@@ -3096,18 +3086,18 @@
         <v>0</v>
       </c>
       <c r="X15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y15" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y15" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -2
 Wrong calculation in two complex roots(-0)
 Meanless functions naming(-0)
 report: great</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="129.6">
+    <row r="16" spans="1:25" ht="129">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -3118,11 +3108,11 @@
         <v>61</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="F16" s="8">
@@ -3164,14 +3154,14 @@
       <c r="R16" s="8">
         <v>0</v>
       </c>
-      <c r="S16" s="33" t="s">
+      <c r="S16" s="29" t="s">
         <v>118</v>
       </c>
       <c r="T16" s="7">
         <v>4</v>
       </c>
       <c r="U16" s="7">
-        <f>IF(4*T16&lt;=20, 4*T16, 20)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="V16" s="26" t="s">
@@ -3181,11 +3171,11 @@
         <v>8</v>
       </c>
       <c r="X16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="Y16" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y16" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -16
 Incorrect file name(-4)
 Incorrect file format(-4)
@@ -3196,7 +3186,7 @@
 Incorrect file format(-4)</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="64.8">
+    <row r="17" spans="1:26" ht="64.5">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -3207,7 +3197,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="E17" s="8">
@@ -3253,14 +3243,14 @@
       <c r="R17" s="8">
         <v>0</v>
       </c>
-      <c r="S17" s="32" t="s">
+      <c r="S17" s="28" t="s">
         <v>109</v>
       </c>
       <c r="T17" s="7">
         <v>1</v>
       </c>
       <c r="U17" s="7">
-        <f>IF(4*T17&lt;=20, 4*T17, 20)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="V17" s="26" t="s">
@@ -3270,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="X17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y17" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y17" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -6
 Wrong calculation in two complex roots(-0)
 Incorrect type of a, b, and c(-4)
 report: great</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="81">
+    <row r="18" spans="1:26" ht="80.650000000000006">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -3292,11 +3282,11 @@
         <v>69</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="F18" s="8">
@@ -3338,12 +3328,12 @@
       <c r="R18" s="8">
         <v>0</v>
       </c>
-      <c r="S18" s="32"/>
+      <c r="S18" s="28"/>
       <c r="T18" s="7">
         <v>0</v>
       </c>
       <c r="U18" s="7">
-        <f>IF(4*T18&lt;=20, 4*T18, 20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V18" s="26" t="s">
@@ -3353,11 +3343,11 @@
         <v>0</v>
       </c>
       <c r="X18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y18" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y18" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -8
 Wrongly printing sentences(-1)
 Without handle a==0 condition(-0)
@@ -3365,7 +3355,7 @@
 report: great</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="81">
+    <row r="19" spans="1:26" ht="80.650000000000006">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -3376,11 +3366,11 @@
         <v>73</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="F19" s="8">
@@ -3422,12 +3412,12 @@
       <c r="R19" s="8">
         <v>0</v>
       </c>
-      <c r="S19" s="32"/>
+      <c r="S19" s="28"/>
       <c r="T19" s="7">
         <v>0</v>
       </c>
       <c r="U19" s="7">
-        <f>IF(4*T19&lt;=20, 4*T19, 20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V19" s="26" t="s">
@@ -3437,11 +3427,11 @@
         <v>0</v>
       </c>
       <c r="X19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y19" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y19" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -10
 Incorrect printing coefficients(-1)
 Wrong calculation in multiple roots(-0)
@@ -3449,7 +3439,7 @@
 report: great</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="81">
+    <row r="20" spans="1:26" ht="80.650000000000006">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -3460,11 +3450,11 @@
         <v>77</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="E20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="F20" s="8">
@@ -3506,14 +3496,14 @@
       <c r="R20" s="8">
         <v>0</v>
       </c>
-      <c r="S20" s="32" t="s">
+      <c r="S20" s="28" t="s">
         <v>109</v>
       </c>
       <c r="T20" s="7">
         <v>1</v>
       </c>
       <c r="U20" s="7">
-        <f>IF(4*T20&lt;=20, 4*T20, 20)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="V20" s="26" t="s">
@@ -3523,11 +3513,11 @@
         <v>0</v>
       </c>
       <c r="X20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y20" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y20" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -6
 Wrongly printing sentences(-1)
 Incorrect printing coefficients(-1)
@@ -3535,7 +3525,7 @@
 report: great</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="64.8">
+    <row r="21" spans="1:26" ht="64.5">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -3546,11 +3536,11 @@
         <v>81</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="E21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="F21" s="8">
@@ -3592,12 +3582,12 @@
       <c r="R21" s="8">
         <v>0</v>
       </c>
-      <c r="S21" s="32"/>
+      <c r="S21" s="28"/>
       <c r="T21" s="7">
         <v>0</v>
       </c>
       <c r="U21" s="7">
-        <f>IF(4*T21&lt;=20, 4*T21, 20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V21" s="26" t="s">
@@ -3607,18 +3597,18 @@
         <v>0</v>
       </c>
       <c r="X21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y21" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y21" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -8
 Wrongly printing sentences(-1)
 Wrong calculation in two complex roots(-0)
 report: great</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="48.6">
+    <row r="22" spans="1:26" ht="48.4">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -3629,11 +3619,11 @@
         <v>85</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="F22" s="8">
@@ -3675,12 +3665,12 @@
       <c r="R22" s="8">
         <v>0</v>
       </c>
-      <c r="S22" s="32"/>
+      <c r="S22" s="28"/>
       <c r="T22" s="7">
         <v>0</v>
       </c>
       <c r="U22" s="7">
-        <f>IF(4*T22&lt;=20, 4*T22, 20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V22" s="26" t="s">
@@ -3690,17 +3680,17 @@
         <v>0</v>
       </c>
       <c r="X22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y22" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y22" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -2
 Wrong calculation in two complex roots(-0)
 report: great</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="64.8">
+    <row r="23" spans="1:26" ht="64.5">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -3711,11 +3701,11 @@
         <v>17</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="F23" s="8">
@@ -3757,12 +3747,12 @@
       <c r="R23" s="8">
         <v>0</v>
       </c>
-      <c r="S23" s="32"/>
+      <c r="S23" s="28"/>
       <c r="T23" s="7">
         <v>0</v>
       </c>
       <c r="U23" s="7">
-        <f>IF(4*T23&lt;=20, 4*T23, 20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V23" s="26" t="s">
@@ -3772,18 +3762,18 @@
         <v>0</v>
       </c>
       <c r="X23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y23" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y23" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -3
 Wrongly printing sentences(-1)
 Wrong calculation in two complex roots(-0)
 report: great</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="64.8">
+    <row r="24" spans="1:26" ht="64.5">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -3794,11 +3784,11 @@
         <v>91</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="F24" s="8">
@@ -3840,12 +3830,12 @@
       <c r="R24" s="8">
         <v>0</v>
       </c>
-      <c r="S24" s="32"/>
+      <c r="S24" s="28"/>
       <c r="T24" s="7">
         <v>0</v>
       </c>
       <c r="U24" s="7">
-        <f>IF(4*T24&lt;=20, 4*T24, 20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V24" s="26" t="s">
@@ -3855,18 +3845,18 @@
         <v>0</v>
       </c>
       <c r="X24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y24" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y24" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -7
 Without handle a==0 condition(-0)
 Wrong calculation in two complex roots(-0)
 report: great</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="113.4">
+    <row r="25" spans="1:26" ht="112.9">
       <c r="A25" s="9">
         <v>23</v>
       </c>
@@ -3877,11 +3867,11 @@
         <v>95</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="F25" s="8">
@@ -3923,14 +3913,14 @@
       <c r="R25" s="8">
         <v>0</v>
       </c>
-      <c r="S25" s="33" t="s">
+      <c r="S25" s="29" t="s">
         <v>120</v>
       </c>
       <c r="T25" s="7">
         <v>1</v>
       </c>
       <c r="U25" s="7">
-        <f>IF(4*T25&lt;=20, 4*T25, 20)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="V25" s="26" t="s">
@@ -3940,11 +3930,11 @@
         <v>0</v>
       </c>
       <c r="X25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y25" s="37" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y25" s="31" t="str">
+        <f t="shared" si="4"/>
         <v>source code: -8
 Wrongly printing sentences(-1)
 Wrongly handle other numbers(-1)
@@ -3958,11 +3948,11 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="V27" s="36"/>
-      <c r="Y27" s="36" t="s">
+      <c r="V27" s="30"/>
+      <c r="Y27" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="Z27" s="36"/>
+      <c r="Z27" s="30"/>
     </row>
     <row r="28" spans="1:26">
       <c r="Y28" t="s">
@@ -4043,14 +4033,14 @@
     <mergeCell ref="V1:W2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="G3:K10 G14:K14 G13:M13 R13 G18:M18 G19:N19 G20:R20 G21:P21 G23:P23 G25:K25">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
-      <formula>3</formula>
+  <conditionalFormatting sqref="F3:F16 R11 G11:M12 G15:N16 R15:R17 H17:N17 F18:F25 G22:P22 G24:M24">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:M12 R11 G15:N16 F3:F16 F18:F25 H17:N17 R15:R17 G22:P22 G24:M24">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
-      <formula>1</formula>
+  <conditionalFormatting sqref="G3:K10 G13:M13 R13 G14:K14 G18:M18 G19:N19 G20:R20 G21:P21 G23:P23 G25:K25">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:M10 L14:M14 L25:P25">
@@ -4058,23 +4048,23 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N14 N18 N24">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:Q19 Q21:Q23 O24:Q24 Q25">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R3:R10 R12 R14 R17 R19 R21:R25">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N14 N18 N24">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:Q19 O24:Q24 Q21:Q23 Q25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4330,20 +4320,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3317c420-d316-4435-8241-33b98cfe393f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3317c420-d316-4435-8241-33b98cfe393f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4353,13 +4343,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D1AD7C-47F2-4F28-91EE-0FBA88418B59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E640310-4364-41D6-9671-4FC3C3618F46}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E640310-4364-41D6-9671-4FC3C3618F46}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D1AD7C-47F2-4F28-91EE-0FBA88418B59}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>